--- a/Inputs/Orange/info.xlsx
+++ b/Inputs/Orange/info.xlsx
@@ -70,7 +70,7 @@
     <t xml:space="preserve">advanced</t>
   </si>
   <si>
-    <t xml:space="preserve">Orange (Regional Plus)</t>
+    <t xml:space="preserve">Orange (Regional Plus) NAS</t>
   </si>
 </sst>
 </file>
@@ -254,10 +254,10 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.01"/>
@@ -328,7 +328,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/Inputs/Orange/info.xlsx
+++ b/Inputs/Orange/info.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">provider</t>
   </si>
@@ -49,6 +49,9 @@
     <t xml:space="preserve">insurerName</t>
   </si>
   <si>
+    <t xml:space="preserve">showAddons</t>
+  </si>
+  <si>
     <t xml:space="preserve">Orange</t>
   </si>
   <si>
@@ -64,13 +67,44 @@
     <t xml:space="preserve">Annually</t>
   </si>
   <si>
-    <t xml:space="preserve">Scans &amp; Diagnostic Tests/Out-patient Consultations/Out-patient Medicines/Accommodation Type/Annual Limit/Dental/Optical Benefits/Maternity (Consultations, Scans and Delivery)</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Scans &amp; Diagnostic Tests/Out-patient Consultations/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Out-patient Specialists</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/Out-patient Medicines/Accommodation Type/Annual Limit/Dental/Optical Benefits/Maternity (Consultations, Scans and Delivery)/Maternity Waiting Period/Complications of Pregnancy/New Born Cover</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">advanced</t>
   </si>
   <si>
     <t xml:space="preserve">Orange (Regional Plus) NAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scans &amp; Diagnostic Tests/Out-patient Consultations/Out-patient Medicines/Accommodation Type/Annual Limit</t>
   </si>
 </sst>
 </file>
@@ -81,7 +115,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -109,6 +143,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -251,19 +291,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="66.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="24.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="89.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -295,34 +336,40 @@
       <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="37.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="62.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>3.6725</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/Orange/info.xlsx
+++ b/Inputs/Orange/info.xlsx
@@ -58,7 +58,7 @@
     <t xml:space="preserve">NE_Dubai/AbuDhabi</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-08-01</t>
+    <t xml:space="preserve">2025-04-01</t>
   </si>
   <si>
     <t xml:space="preserve">USD</t>
@@ -67,35 +67,7 @@
     <t xml:space="preserve">Annually</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Scans &amp; Diagnostic Tests/Out-patient Consultations/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Out-patient Specialists</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/Out-patient Medicines/Accommodation Type/Annual Limit/Dental/Optical Benefits/Maternity (Consultations, Scans and Delivery)/Maternity Waiting Period/Complications of Pregnancy/New Born Cover</t>
-    </r>
+    <t xml:space="preserve">Scans &amp; Diagnostic Tests/Out-patient Consultations/Out-patient Medicines/Accommodation Type/Annual Limit/Dental/Optical Benefits/Maternity (Consultations, Scans and Delivery)/Maternity Waiting Period/Complications of Pregnancy/New Born Cover</t>
   </si>
   <si>
     <t xml:space="preserve">advanced</t>
@@ -115,7 +87,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -143,12 +115,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF222222"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -294,16 +260,16 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="66.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="24.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="44.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="89.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
@@ -340,7 +306,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="62.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -375,7 +341,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
